--- a/users.xlsx
+++ b/users.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>Codev</t>
   </si>
@@ -133,6 +133,15 @@
   </si>
   <si>
     <t>U1415</t>
+  </si>
+  <si>
+    <t>U1412</t>
+  </si>
+  <si>
+    <t>آقای عطایی</t>
+  </si>
+  <si>
+    <t>ataee</t>
   </si>
 </sst>
 </file>
@@ -500,7 +509,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -696,7 +705,21 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12">
+        <v>123456</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/users.xlsx
+++ b/users.xlsx
@@ -135,13 +135,13 @@
     <t>U1415</t>
   </si>
   <si>
-    <t>U1412</t>
-  </si>
-  <si>
-    <t>آقای عطایی</t>
-  </si>
-  <si>
-    <t>ataee</t>
+    <t>U0000</t>
+  </si>
+  <si>
+    <t>کاربر مهمان</t>
+  </si>
+  <si>
+    <t>Guest</t>
   </si>
 </sst>
 </file>
@@ -509,7 +509,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A12" sqref="A12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -718,7 +718,7 @@
         <v>123456</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/users.xlsx
+++ b/users.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>Codev</t>
   </si>
@@ -87,9 +87,6 @@
     <t>خانم الناز ضيا</t>
   </si>
   <si>
-    <t>adadi</t>
-  </si>
-  <si>
     <t>hoseani</t>
   </si>
   <si>
@@ -142,6 +139,60 @@
   </si>
   <si>
     <t>Guest</t>
+  </si>
+  <si>
+    <t>asadi</t>
+  </si>
+  <si>
+    <t>E101</t>
+  </si>
+  <si>
+    <t>E102</t>
+  </si>
+  <si>
+    <t>E103</t>
+  </si>
+  <si>
+    <t>E104</t>
+  </si>
+  <si>
+    <t>خانم مسلمی</t>
+  </si>
+  <si>
+    <t>خانم موسوی</t>
+  </si>
+  <si>
+    <t>خانم شوشتری</t>
+  </si>
+  <si>
+    <t>خانم فروغ نيا</t>
+  </si>
+  <si>
+    <t>A1001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آقای دهنوی </t>
+  </si>
+  <si>
+    <t>Edari</t>
+  </si>
+  <si>
+    <t>Anbar</t>
+  </si>
+  <si>
+    <t>moslemi</t>
+  </si>
+  <si>
+    <t>Kmosavi</t>
+  </si>
+  <si>
+    <t>Eshoshtari</t>
+  </si>
+  <si>
+    <t>Foroghniya</t>
+  </si>
+  <si>
+    <t>dehnavi</t>
   </si>
 </sst>
 </file>
@@ -506,15 +557,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:E12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -570,7 +622,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -579,7 +631,7 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>222222</v>
+        <v>111111</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -587,16 +639,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>333333</v>
+        <v>111111</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -604,16 +656,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>444444</v>
+        <v>111111</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -621,16 +673,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>555555</v>
+        <v>111111</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -638,16 +690,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>666666</v>
+        <v>111111</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -655,16 +707,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>777777</v>
+        <v>111111</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -672,16 +724,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>888888</v>
+        <v>111111</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -689,16 +741,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
       <c r="D11">
-        <v>999999</v>
+        <v>111111</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -706,19 +758,104 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
         <v>38</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>39</v>
       </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
       <c r="D12">
-        <v>123456</v>
+        <v>111111</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13">
+        <v>111111</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14">
+        <v>111111</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15">
+        <v>111111</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16">
+        <v>111111</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17">
+        <v>111111</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
